--- a/watermeter_calc.xlsx
+++ b/watermeter_calc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,70 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">Лист4!$A$1:$Z$28</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Автор</author>
+  </authors>
+  <commentList>
+    <comment ref="B8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Минимальный период опроса. 1 опрос на темный сектор</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Число опросов на темн сектор. Правее требуемые периоды опроса</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="71">
   <si>
     <t>отключено</t>
   </si>
@@ -233,13 +290,7 @@
     <t>длит. цикла работы</t>
   </si>
   <si>
-    <t>период 5</t>
-  </si>
-  <si>
-    <t>период 3</t>
-  </si>
-  <si>
-    <t>период 1</t>
+    <t>период мин</t>
   </si>
 </sst>
 </file>
@@ -250,7 +301,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,6 +353,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -825,8 +889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C2:AC31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="V19" sqref="V19"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1991,8 +2055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:L23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2087,113 +2151,150 @@
     </row>
     <row r="8" spans="2:11">
       <c r="B8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C8" s="25">
-        <f>3600/C7*3/4</f>
-        <v>0.5625</v>
+        <f>3600/C7/3</f>
+        <v>0.25</v>
       </c>
       <c r="D8" s="25">
-        <f>3600/D7*3/4</f>
-        <v>0.75</v>
+        <f>3600/D7/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E8" s="25">
-        <f t="shared" ref="E8:J8" si="1">3600/E7*3/4</f>
-        <v>1.125</v>
+        <f t="shared" ref="E8:J8" si="1">3600/E7/3</f>
+        <v>0.5</v>
       </c>
       <c r="F8" s="25">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G8" s="25">
         <f t="shared" si="1"/>
-        <v>2.25</v>
+        <v>1</v>
       </c>
       <c r="H8" s="25">
         <f t="shared" si="1"/>
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="I8" s="25">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J8" s="25">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" t="s">
-        <v>71</v>
+      <c r="B9">
+        <v>2</v>
       </c>
       <c r="C9" s="25">
-        <f>C8/2</f>
-        <v>0.28125</v>
+        <f t="shared" ref="C9:I9" si="2">C$8/$B9</f>
+        <v>0.125</v>
       </c>
       <c r="D9" s="25">
-        <f>D8/3</f>
+        <f t="shared" si="2"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E9" s="25">
+        <f t="shared" si="2"/>
         <v>0.25</v>
-      </c>
-      <c r="E9" s="25">
-        <f t="shared" ref="E9:J9" si="2">E8/3</f>
-        <v>0.375</v>
       </c>
       <c r="F9" s="25">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G9" s="25">
         <f t="shared" si="2"/>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="H9" s="25">
         <f t="shared" si="2"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I9" s="25">
         <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J9" s="25">
+        <f t="shared" ref="F9:J9" si="3">J$8/$B9</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10">
         <v>3</v>
       </c>
-      <c r="J9" s="25">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11">
-      <c r="B10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10">
-        <f t="shared" ref="C10:J10" si="3">C8/5</f>
-        <v>0.1125</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="3"/>
-        <v>0.15</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="3"/>
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="3"/>
-        <v>0.3</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="3"/>
-        <v>0.45</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="3"/>
-        <v>0.9</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="3"/>
-        <v>1.8</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="3"/>
-        <v>36</v>
+      <c r="C10" s="25">
+        <f t="shared" ref="C10:J11" si="4">C$8/$B10</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D10" s="25">
+        <f t="shared" si="4"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E10" s="25">
+        <f t="shared" si="4"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F10" s="25">
+        <f t="shared" si="4"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="G10" s="25">
+        <f t="shared" si="4"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H10" s="25">
+        <f t="shared" si="4"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I10" s="25">
+        <f t="shared" si="4"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="J10" s="25">
+        <f t="shared" si="4"/>
+        <v>26.666666666666668</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" s="25">
+        <f t="shared" si="4"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="D11" s="25">
+        <f t="shared" si="4"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E11" s="25">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="F11" s="25">
+        <f t="shared" si="4"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G11" s="25">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="H11" s="25">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="I11" s="25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J11" s="25">
+        <f t="shared" si="4"/>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="2:11">
@@ -2282,6 +2383,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2723,7 +2825,7 @@
   </sheetPr>
   <dimension ref="R1:Z1"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Z28" sqref="A1:Z28"/>
     </sheetView>
   </sheetViews>

--- a/watermeter_calc.xlsx
+++ b/watermeter_calc.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">Лист4!$A$1:$Z$28</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -25,7 +25,7 @@
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="B8" authorId="0">
+    <comment ref="B8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0">
+    <comment ref="B9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="75">
   <si>
     <t>отключено</t>
   </si>
@@ -278,30 +278,42 @@
     <t>Для правильной дискретизации, чтобы не было искажений, необходимо взять частоту дискретизации не менее в два раза больше максимальной частоты сигнала.</t>
   </si>
   <si>
-    <t>Максимальный период опроса 2 сек</t>
-  </si>
-  <si>
-    <t>Тактовая</t>
-  </si>
-  <si>
     <t>WDT с</t>
   </si>
   <si>
-    <t>длит. цикла работы</t>
-  </si>
-  <si>
-    <t>период мин</t>
+    <t>Тактовая частота (Гц)</t>
+  </si>
+  <si>
+    <t>Длительность цикла (сек)</t>
+  </si>
+  <si>
+    <t>Потребление (мА)</t>
+  </si>
+  <si>
+    <t>Емкость питания (мА*ч)</t>
+  </si>
+  <si>
+    <t>Энергия (мА*ч)</t>
+  </si>
+  <si>
+    <t>период сек</t>
+  </si>
+  <si>
+    <t>расчет расхода по частоте опроса датчика</t>
+  </si>
+  <si>
+    <t>Q</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -645,7 +657,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -677,9 +689,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -711,6 +724,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -886,25 +900,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:AC31"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="X17" sqref="X17"/>
+    <sheetView topLeftCell="I4" workbookViewId="0">
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
-    <col min="4" max="5" width="9.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
+    <col min="4" max="5" width="9.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.5546875" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" customWidth="1"/>
     <col min="25" max="25" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:29">
+    <row r="2" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>5</v>
       </c>
@@ -918,7 +932,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="3:29">
+    <row r="3" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>4</v>
       </c>
@@ -944,7 +958,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="3:29">
+    <row r="4" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>6</v>
       </c>
@@ -991,7 +1005,7 @@
         <v>0.31999999999999995</v>
       </c>
     </row>
-    <row r="5" spans="3:29">
+    <row r="5" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>11</v>
       </c>
@@ -1038,7 +1052,7 @@
         <v>0.67714285714285716</v>
       </c>
     </row>
-    <row r="6" spans="3:29">
+    <row r="6" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>12</v>
       </c>
@@ -1047,7 +1061,7 @@
         <v>9531.25</v>
       </c>
     </row>
-    <row r="8" spans="3:29" ht="15.6" customHeight="1">
+    <row r="8" spans="3:29" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
@@ -1067,7 +1081,7 @@
       <c r="Z8" s="37"/>
       <c r="AA8" s="37"/>
     </row>
-    <row r="9" spans="3:29" ht="45">
+    <row r="9" spans="3:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>0</v>
       </c>
@@ -1102,7 +1116,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="3:29">
+    <row r="10" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -1139,7 +1153,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="11" spans="3:29">
+    <row r="11" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>1</v>
       </c>
@@ -1187,7 +1201,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="12" spans="3:29">
+    <row r="12" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -1237,7 +1251,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="13" spans="3:29">
+    <row r="13" spans="3:29" x14ac:dyDescent="0.3">
       <c r="K13" s="20" t="s">
         <v>14</v>
       </c>
@@ -1278,7 +1292,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="3:29">
+    <row r="14" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>21</v>
       </c>
@@ -1337,7 +1351,7 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="15" spans="3:29">
+    <row r="15" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C15">
         <v>256</v>
       </c>
@@ -1386,7 +1400,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="3:29">
+    <row r="16" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C16">
         <v>2048</v>
       </c>
@@ -1447,7 +1461,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="3:29">
+    <row r="17" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C17">
         <v>8192</v>
       </c>
@@ -1498,7 +1512,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="3:29">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C18">
         <v>32768</v>
       </c>
@@ -1538,7 +1552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="3:29">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.3">
       <c r="E19" s="11"/>
       <c r="F19">
         <v>200</v>
@@ -1573,7 +1587,7 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="20" spans="3:29">
+    <row r="20" spans="3:29" x14ac:dyDescent="0.3">
       <c r="E20" s="11"/>
       <c r="F20">
         <v>100</v>
@@ -1611,7 +1625,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="3:29">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.3">
       <c r="E21" s="11"/>
       <c r="F21">
         <v>1000</v>
@@ -1654,7 +1668,7 @@
         <v>0.11864608684825964</v>
       </c>
     </row>
-    <row r="22" spans="3:29">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.3">
       <c r="E22" s="11"/>
       <c r="F22">
         <v>3700</v>
@@ -1703,7 +1717,7 @@
         <v>0.19774347808043272</v>
       </c>
     </row>
-    <row r="23" spans="3:29">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.3">
       <c r="E23" s="11"/>
       <c r="F23">
         <v>10000</v>
@@ -1749,7 +1763,7 @@
         <v>0.28672804321662743</v>
       </c>
     </row>
-    <row r="24" spans="3:29">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.3">
       <c r="F24">
         <v>1020</v>
       </c>
@@ -1791,7 +1805,7 @@
         <v>7.181683590284807E-2</v>
       </c>
     </row>
-    <row r="25" spans="3:29">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.3">
       <c r="K25" s="7">
         <f>1023-111</f>
         <v>912</v>
@@ -1830,7 +1844,7 @@
         <v>0.10561299397477658</v>
       </c>
     </row>
-    <row r="26" spans="3:29">
+    <row r="26" spans="3:29" x14ac:dyDescent="0.3">
       <c r="P26" s="30">
         <v>65</v>
       </c>
@@ -1858,7 +1872,7 @@
         <v>0.13729689216720956</v>
       </c>
     </row>
-    <row r="27" spans="3:29">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.3">
       <c r="P27">
         <v>50</v>
       </c>
@@ -1886,7 +1900,7 @@
         <v>0.10561299397477658</v>
       </c>
     </row>
-    <row r="28" spans="3:29">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>36</v>
       </c>
@@ -1923,7 +1937,7 @@
         <v>0.15208271132367826</v>
       </c>
     </row>
-    <row r="29" spans="3:29">
+    <row r="29" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>39</v>
       </c>
@@ -1975,7 +1989,7 @@
         <v>0.19855242867257997</v>
       </c>
     </row>
-    <row r="30" spans="3:29">
+    <row r="30" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>38</v>
       </c>
@@ -2008,7 +2022,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="31" spans="3:29">
+    <row r="31" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>37</v>
       </c>
@@ -2052,27 +2066,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:L23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="H4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>62</v>
       </c>
@@ -2081,15 +2096,15 @@
         <v>80</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:J5" si="0">D7/60</f>
+        <f>D7/60</f>
         <v>60</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
+        <f>E7/60</f>
         <v>40</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D5:J5" si="0">F7/60</f>
         <v>30</v>
       </c>
       <c r="G5">
@@ -2109,18 +2124,13 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
-      <c r="D6" s="38" t="s">
-        <v>69</v>
-      </c>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D6" s="38"/>
       <c r="E6" s="38"/>
       <c r="F6" s="38"/>
       <c r="G6" s="38"/>
-      <c r="H6">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11">
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>39</v>
       </c>
@@ -2149,232 +2159,266 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C8" s="25">
-        <f>3600/C7/3</f>
+        <f t="shared" ref="C8:D8" si="1">3600/C7/3</f>
         <v>0.25</v>
       </c>
       <c r="D8" s="25">
-        <f>3600/D7/3</f>
+        <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="E8" s="25">
-        <f t="shared" ref="E8:J8" si="1">3600/E7/3</f>
+        <f>3600/E7/3</f>
         <v>0.5</v>
       </c>
       <c r="F8" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F8:J8" si="2">3600/F7/3</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="G8" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H8" s="25">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="I8" s="25">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="J8" s="25">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" s="25">
-        <f t="shared" ref="C9:I9" si="2">C$8/$B9</f>
-        <v>0.125</v>
-      </c>
-      <c r="D9" s="25">
-        <f t="shared" si="2"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="E9" s="25">
-        <f t="shared" si="2"/>
-        <v>0.25</v>
-      </c>
-      <c r="F9" s="25">
-        <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G9" s="25">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="H9" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I9" s="25">
+      <c r="H8" s="25">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
+      <c r="I8" s="25">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="J8" s="25">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="25">
+        <f t="shared" ref="C9:I9" si="3">C$8/$B9</f>
+        <v>0.25</v>
+      </c>
+      <c r="D9" s="25">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E9" s="25">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="25">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G9" s="25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H9" s="25">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="I9" s="25">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
       <c r="J9" s="25">
-        <f t="shared" ref="F9:J9" si="3">J$8/$B9</f>
+        <f t="shared" ref="J9" si="4">J$8/$B9</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" s="25">
+        <f t="shared" ref="C10:J11" si="5">C$8/$B10</f>
+        <v>0.125</v>
+      </c>
+      <c r="D10" s="25">
+        <f t="shared" si="5"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E10" s="25">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="F10" s="25">
+        <f t="shared" si="5"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G10" s="25">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I10" s="25">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="J10" s="25">
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="2:11">
-      <c r="B10">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B11">
         <v>3</v>
       </c>
-      <c r="C10" s="25">
-        <f t="shared" ref="C10:J11" si="4">C$8/$B10</f>
+      <c r="C11" s="25">
+        <f t="shared" si="5"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D10" s="25">
-        <f t="shared" si="4"/>
+      <c r="D11" s="25">
+        <f t="shared" si="5"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="E10" s="25">
-        <f t="shared" si="4"/>
+      <c r="E11" s="25">
+        <f t="shared" si="5"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="F10" s="25">
-        <f t="shared" si="4"/>
+      <c r="F11" s="25">
+        <f t="shared" si="5"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="G10" s="25">
-        <f t="shared" si="4"/>
+      <c r="G11" s="25">
+        <f t="shared" si="5"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="H10" s="25">
-        <f t="shared" si="4"/>
+      <c r="H11" s="25">
+        <f t="shared" si="5"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="I10" s="25">
-        <f t="shared" si="4"/>
+      <c r="I11" s="25">
+        <f t="shared" si="5"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="J10" s="25">
-        <f t="shared" si="4"/>
+      <c r="J11" s="25">
+        <f t="shared" si="5"/>
         <v>26.666666666666668</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11" s="25">
-        <f t="shared" si="4"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="D11" s="25">
-        <f t="shared" si="4"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="E11" s="25">
-        <f t="shared" si="4"/>
-        <v>0.125</v>
-      </c>
-      <c r="F11" s="25">
-        <f t="shared" si="4"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="G11" s="25">
-        <f t="shared" si="4"/>
-        <v>0.25</v>
-      </c>
-      <c r="H11" s="25">
-        <f t="shared" si="4"/>
-        <v>0.5</v>
-      </c>
-      <c r="I11" s="25">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J11" s="25">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="2:11">
-      <c r="B16" t="s">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K16" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="K16" s="35" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="3:12">
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17">
+        <v>500</v>
+      </c>
+      <c r="G17">
+        <f>500*3600</f>
+        <v>1800000</v>
+      </c>
       <c r="K17" s="14">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>67</v>
       </c>
-      <c r="D18">
+      <c r="F18">
         <v>8000000</v>
       </c>
+      <c r="G18">
+        <v>8000000</v>
+      </c>
       <c r="K18" s="14">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="L18">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G19">
+        <v>1E-3</v>
+      </c>
+      <c r="K19" s="14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="3:12">
-      <c r="K19" s="14">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="L19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="3:12">
       <c r="K20" s="14">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="L20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21">
+        <f>F20*F19/3600</f>
+        <v>6.9444444444444448E-6</v>
+      </c>
+      <c r="G21">
+        <f>G20*G19</f>
+        <v>2E-3</v>
+      </c>
       <c r="K21" s="14">
-        <v>0.27</v>
-      </c>
-      <c r="L21">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12">
-      <c r="K22" s="14">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="L22">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12">
-      <c r="K23" s="14">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L23">
-        <v>64</v>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="K22" s="14"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <f>F17/F21</f>
+        <v>72000000</v>
+      </c>
+      <c r="G23">
+        <f>G17/G21</f>
+        <v>900000000</v>
+      </c>
+      <c r="K23" s="14"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F24">
+        <f>F23/86400/365</f>
+        <v>2.2831050228310503</v>
       </c>
     </row>
   </sheetData>
@@ -2388,21 +2432,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F4:O44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="19.28515625" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="6:15">
+    <row r="4" spans="6:15" x14ac:dyDescent="0.3">
       <c r="K4" t="s">
         <v>59</v>
       </c>
@@ -2411,12 +2455,12 @@
         <v>4.595744680851064E-4</v>
       </c>
     </row>
-    <row r="5" spans="6:15">
+    <row r="5" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="6:15">
+    <row r="7" spans="6:15" x14ac:dyDescent="0.3">
       <c r="K7" t="s">
         <v>19</v>
       </c>
@@ -2424,7 +2468,7 @@
         <v>19434</v>
       </c>
     </row>
-    <row r="8" spans="6:15">
+    <row r="8" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F8" t="s">
         <v>55</v>
       </c>
@@ -2447,7 +2491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="6:15">
+    <row r="9" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F9" t="s">
         <v>56</v>
       </c>
@@ -2474,7 +2518,7 @@
         <v>0.10291242152927858</v>
       </c>
     </row>
-    <row r="10" spans="6:15">
+    <row r="10" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F10" t="s">
         <v>57</v>
       </c>
@@ -2482,7 +2526,7 @@
         <v>4.6999999999999997E-5</v>
       </c>
     </row>
-    <row r="11" spans="6:15">
+    <row r="11" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F11" t="s">
         <v>58</v>
       </c>
@@ -2491,7 +2535,7 @@
         <v>0.22492857142857145</v>
       </c>
     </row>
-    <row r="14" spans="6:15">
+    <row r="14" spans="6:15" x14ac:dyDescent="0.3">
       <c r="K14" t="s">
         <v>55</v>
       </c>
@@ -2502,7 +2546,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="15" spans="6:15">
+    <row r="15" spans="6:15" x14ac:dyDescent="0.3">
       <c r="K15" t="s">
         <v>40</v>
       </c>
@@ -2514,7 +2558,7 @@
         <v>9.7766800452814655E-3</v>
       </c>
     </row>
-    <row r="16" spans="6:15">
+    <row r="16" spans="6:15" x14ac:dyDescent="0.3">
       <c r="K16" t="s">
         <v>19</v>
       </c>
@@ -2535,7 +2579,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="11:15">
+    <row r="20" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K20" t="s">
         <v>19</v>
       </c>
@@ -2543,7 +2587,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="21" spans="11:15">
+    <row r="21" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K21" t="s">
         <v>55</v>
       </c>
@@ -2560,7 +2604,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="22" spans="11:15">
+    <row r="22" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K22" s="21" t="s">
         <v>40</v>
       </c>
@@ -2581,7 +2625,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="26" spans="11:15">
+    <row r="26" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K26" t="s">
         <v>19</v>
       </c>
@@ -2589,7 +2633,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="27" spans="11:15">
+    <row r="27" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K27" t="s">
         <v>60</v>
       </c>
@@ -2606,7 +2650,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="28" spans="11:15">
+    <row r="28" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K28" s="21" t="s">
         <v>61</v>
       </c>
@@ -2627,7 +2671,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="31" spans="11:15">
+    <row r="31" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K31" t="s">
         <v>19</v>
       </c>
@@ -2635,7 +2679,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="32" spans="11:15">
+    <row r="32" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K32" t="s">
         <v>55</v>
       </c>
@@ -2652,7 +2696,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="33" spans="11:15">
+    <row r="33" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K33" s="21" t="s">
         <v>40</v>
       </c>
@@ -2673,7 +2717,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="35" spans="11:15">
+    <row r="35" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K35" t="s">
         <v>55</v>
       </c>
@@ -2690,7 +2734,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="36" spans="11:15">
+    <row r="36" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K36" s="21" t="s">
         <v>40</v>
       </c>
@@ -2711,7 +2755,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="38" spans="11:15">
+    <row r="38" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K38" t="s">
         <v>55</v>
       </c>
@@ -2728,7 +2772,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="39" spans="11:15">
+    <row r="39" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K39" s="21" t="s">
         <v>40</v>
       </c>
@@ -2749,7 +2793,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="42" spans="11:15">
+    <row r="42" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K42">
         <v>15000</v>
       </c>
@@ -2770,7 +2814,7 @@
         <v>2.0100000000000002</v>
       </c>
     </row>
-    <row r="43" spans="11:15">
+    <row r="43" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K43">
         <v>15000</v>
       </c>
@@ -2791,7 +2835,7 @@
         <v>2.0100000000000002</v>
       </c>
     </row>
-    <row r="44" spans="11:15">
+    <row r="44" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K44">
         <v>15000</v>
       </c>
@@ -2819,7 +2863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2829,11 +2873,11 @@
       <selection activeCell="Z28" sqref="A1:Z28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="17" max="17" width="6.28515625" customWidth="1"/>
-    <col min="18" max="25" width="8.85546875" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="5.42578125" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="6.33203125" customWidth="1"/>
+    <col min="18" max="25" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="5.44140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/watermeter_calc.xlsx
+++ b/watermeter_calc.xlsx
@@ -25,7 +25,7 @@
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="B8" authorId="0">
+    <comment ref="B9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0">
+    <comment ref="B10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="91">
   <si>
     <t>отключено</t>
   </si>
@@ -278,28 +278,89 @@
     <t>Для правильной дискретизации, чтобы не было искажений, необходимо взять частоту дискретизации не менее в два раза больше максимальной частоты сигнала.</t>
   </si>
   <si>
-    <t>Максимальный период опроса 2 сек</t>
-  </si>
-  <si>
-    <t>Тактовая</t>
-  </si>
-  <si>
     <t>WDT с</t>
   </si>
   <si>
-    <t>длит. цикла работы</t>
-  </si>
-  <si>
-    <t>период мин</t>
+    <t>дл тем сект</t>
+  </si>
+  <si>
+    <t>x16 в мин</t>
+  </si>
+  <si>
+    <t>период опроса</t>
+  </si>
+  <si>
+    <t>потребление актив</t>
+  </si>
+  <si>
+    <t>потребление сон</t>
+  </si>
+  <si>
+    <t>потребление цикла</t>
+  </si>
+  <si>
+    <t>емкость батареи</t>
+  </si>
+  <si>
+    <t>время  актив</t>
+  </si>
+  <si>
+    <t>ма/ч</t>
+  </si>
+  <si>
+    <t>всего циклов</t>
+  </si>
+  <si>
+    <t>Время работы</t>
+  </si>
+  <si>
+    <t>час</t>
+  </si>
+  <si>
+    <t>сек</t>
+  </si>
+  <si>
+    <t>ма</t>
+  </si>
+  <si>
+    <t>сут</t>
+  </si>
+  <si>
+    <t>ма/с</t>
+  </si>
+  <si>
+    <t>мес</t>
+  </si>
+  <si>
+    <t>Передача показаний период</t>
+  </si>
+  <si>
+    <t>потребление</t>
+  </si>
+  <si>
+    <t>длительность</t>
+  </si>
+  <si>
+    <t>потр передачи в цикле</t>
+  </si>
+  <si>
+    <t>тиков</t>
+  </si>
+  <si>
+    <t>4800 kb/s 2,08ms/ch * 64char = 130ms</t>
+  </si>
+  <si>
+    <t>Часовой кварц</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -481,7 +542,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -536,11 +597,14 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -889,8 +953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C2:AC31"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="X17" sqref="X17"/>
+    <sheetView topLeftCell="I7" workbookViewId="0">
+      <selection activeCell="W26" sqref="W26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1060,12 +1124,12 @@
       <c r="G8" t="s">
         <v>10</v>
       </c>
-      <c r="X8" s="37" t="s">
+      <c r="X8" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="37"/>
+      <c r="Y8" s="38"/>
+      <c r="Z8" s="38"/>
+      <c r="AA8" s="38"/>
     </row>
     <row r="9" spans="3:29" ht="45">
       <c r="C9" t="s">
@@ -1468,15 +1532,15 @@
         <f t="shared" ref="L17:L25" si="8">$L$12*K17/($L$13-K17)</f>
         <v>527.82503037667072</v>
       </c>
-      <c r="P17" s="37" t="s">
+      <c r="P17" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="37"/>
-      <c r="T17" s="37"/>
-      <c r="U17" s="37"/>
-      <c r="V17" s="37"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="38"/>
       <c r="X17" s="25">
         <v>0.21</v>
       </c>
@@ -2053,334 +2117,681 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:L23"/>
+  <dimension ref="B2:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" customWidth="1"/>
     <col min="9" max="9" width="7.7109375" customWidth="1"/>
+    <col min="12" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:11">
-      <c r="H4" t="s">
+    <row r="2" spans="2:10">
+      <c r="B2">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="H5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="2:11">
-      <c r="B5" t="s">
+    <row r="6" spans="2:10">
+      <c r="B6" t="s">
         <v>62</v>
       </c>
-      <c r="C5">
-        <f>C7/60</f>
+      <c r="C6">
+        <f>C8/60</f>
         <v>80</v>
       </c>
-      <c r="D5">
-        <f t="shared" ref="D5:J5" si="0">D7/60</f>
+      <c r="D6">
+        <f t="shared" ref="D6:J6" si="0">D8/60</f>
         <v>60</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I5">
+      <c r="I6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J5">
+      <c r="J6">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
-      <c r="D6" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="B7" t="s">
+    <row r="7" spans="2:10">
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C8" s="36">
         <v>4800</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D8" s="36">
         <v>3600</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E8" s="34">
         <v>2400</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F8" s="34">
         <v>1800</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G8" s="34">
         <v>1200</v>
       </c>
-      <c r="H7" s="34">
+      <c r="H8" s="34">
         <v>600</v>
       </c>
-      <c r="I7" s="34">
+      <c r="I8" s="34">
         <v>300</v>
       </c>
-      <c r="J7" s="34">
+      <c r="J8" s="34">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:11">
-      <c r="B8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="25">
-        <f>3600/C7/3</f>
+    <row r="9" spans="2:10">
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="25">
+        <f>3600/C8/3</f>
         <v>0.25</v>
       </c>
-      <c r="D8" s="25">
-        <f>3600/D7/3</f>
+      <c r="D9" s="25">
+        <f>3600/D8/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E8" s="25">
-        <f t="shared" ref="E8:J8" si="1">3600/E7/3</f>
+      <c r="E9" s="25">
+        <f t="shared" ref="E9:J9" si="1">3600/E8/3</f>
         <v>0.5</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F9" s="25">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G9" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H9" s="25">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I8" s="25">
+      <c r="I9" s="25">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J8" s="25">
+      <c r="J9" s="25">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="2:11">
-      <c r="B9">
+    <row r="10" spans="2:10">
+      <c r="B10">
         <v>2</v>
       </c>
-      <c r="C9" s="25">
-        <f t="shared" ref="C9:I9" si="2">C$8/$B9</f>
+      <c r="C10" s="25">
+        <f t="shared" ref="C10:I10" si="2">C$9/$B10</f>
         <v>0.125</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D10" s="25">
         <f t="shared" si="2"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E10" s="25">
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F10" s="25">
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G10" s="25">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H10" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I9" s="25">
+      <c r="I10" s="25">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="J9" s="25">
-        <f t="shared" ref="F9:J9" si="3">J$8/$B9</f>
+      <c r="J10" s="25">
+        <f t="shared" ref="J10" si="3">J$9/$B10</f>
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="2:11">
-      <c r="B10">
+    <row r="11" spans="2:10">
+      <c r="B11">
         <v>3</v>
       </c>
-      <c r="C10" s="25">
-        <f t="shared" ref="C10:J11" si="4">C$8/$B10</f>
+      <c r="C11" s="25">
+        <f t="shared" ref="C11:J12" si="4">C$9/$B11</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D11" s="25">
         <f t="shared" si="4"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E11" s="25">
         <f t="shared" si="4"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F11" s="25">
         <f t="shared" si="4"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G11" s="25">
         <f t="shared" si="4"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H11" s="25">
         <f t="shared" si="4"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I11" s="25">
         <f t="shared" si="4"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="J10" s="25">
+      <c r="J11" s="25">
         <f t="shared" si="4"/>
         <v>26.666666666666668</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
-      <c r="B11">
+    <row r="12" spans="2:10">
+      <c r="B12">
         <v>4</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C12" s="25">
         <f t="shared" si="4"/>
         <v>6.25E-2</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D12" s="25">
         <f t="shared" si="4"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E12" s="25">
         <f t="shared" si="4"/>
         <v>0.125</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F12" s="25">
         <f t="shared" si="4"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G12" s="25">
         <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H12" s="25">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I12" s="25">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J11" s="25">
+      <c r="J12" s="25">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="2:11">
-      <c r="B13" t="s">
+    <row r="14" spans="2:10">
+      <c r="B14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="2:11">
-      <c r="B14" t="s">
+    <row r="15" spans="2:10">
+      <c r="B15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="2:11">
-      <c r="B16" t="s">
+    <row r="17" spans="3:17">
+      <c r="K17" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="K16" s="35" t="s">
+      <c r="L17">
+        <v>255</v>
+      </c>
+      <c r="M17">
+        <v>65536</v>
+      </c>
+      <c r="N17" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="3:12">
-      <c r="K17" s="14">
+    <row r="18" spans="3:17">
+      <c r="K18" s="14">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="L17">
+      <c r="L18" s="4">
+        <f>L$17*$K18</f>
+        <v>4.335</v>
+      </c>
+      <c r="M18" s="4">
+        <f>M$17*$K18</f>
+        <v>1114.1120000000001</v>
+      </c>
+      <c r="N18" s="4">
+        <f>M18/60</f>
+        <v>18.568533333333335</v>
+      </c>
+      <c r="P18">
+        <v>17</v>
+      </c>
+      <c r="Q18">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17">
+      <c r="C19" s="37"/>
+      <c r="F19" s="22"/>
+      <c r="K19" s="14">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="L19" s="4">
+        <f t="shared" ref="L19:N29" si="5">L$17*$K19</f>
+        <v>8.67</v>
+      </c>
+      <c r="M19" s="4">
+        <f t="shared" si="5"/>
+        <v>2228.2240000000002</v>
+      </c>
+      <c r="N19" s="4">
+        <f t="shared" ref="N19:N29" si="6">M19/60</f>
+        <v>37.137066666666669</v>
+      </c>
+      <c r="P19">
+        <v>22</v>
+      </c>
+      <c r="Q19">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="3:17">
+      <c r="C20" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20">
+        <v>0.125</v>
+      </c>
+      <c r="E20" t="s">
+        <v>79</v>
+      </c>
+      <c r="J20" t="s">
+        <v>88</v>
+      </c>
+      <c r="K20" s="14">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="L20" s="4">
+        <f t="shared" si="5"/>
+        <v>17.34</v>
+      </c>
+      <c r="M20" s="4">
+        <f t="shared" si="5"/>
+        <v>4456.4480000000003</v>
+      </c>
+      <c r="N20" s="4">
+        <f t="shared" si="6"/>
+        <v>74.274133333333339</v>
+      </c>
+      <c r="P20">
+        <v>50</v>
+      </c>
+      <c r="Q20">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17">
+      <c r="C21" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21">
+        <v>1E-3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>79</v>
+      </c>
+      <c r="J21">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="3:12">
-      <c r="C18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18">
-        <v>8000000</v>
-      </c>
-      <c r="K18" s="14">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="L18">
+      <c r="K21" s="14">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L21" s="4">
+        <f t="shared" si="5"/>
+        <v>35.700000000000003</v>
+      </c>
+      <c r="M21" s="4">
+        <f t="shared" si="5"/>
+        <v>9175.0400000000009</v>
+      </c>
+      <c r="N21" s="4">
+        <f t="shared" si="6"/>
+        <v>152.91733333333335</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17">
+      <c r="C22" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="23">
+        <f>D22*D21/D30</f>
+        <v>0.44642857142857145</v>
+      </c>
+      <c r="J22">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="3:12">
-      <c r="K19" s="14">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="L19">
+      <c r="K22" s="14">
+        <v>0.27</v>
+      </c>
+      <c r="L22" s="4">
+        <f t="shared" si="5"/>
+        <v>68.850000000000009</v>
+      </c>
+      <c r="M22" s="4">
+        <f t="shared" si="5"/>
+        <v>17694.72</v>
+      </c>
+      <c r="N22" s="4">
+        <f t="shared" si="6"/>
+        <v>294.91200000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17">
+      <c r="C23" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23">
+        <v>0.01</v>
+      </c>
+      <c r="E23" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="23">
+        <f>D23*(D20-D21)/D30</f>
+        <v>0.5535714285714286</v>
+      </c>
+      <c r="J23">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="3:12">
-      <c r="K20" s="14">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="L20">
+      <c r="K23" s="14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L23" s="4">
+        <f t="shared" si="5"/>
+        <v>140.25</v>
+      </c>
+      <c r="M23" s="4">
+        <f t="shared" si="5"/>
+        <v>36044.800000000003</v>
+      </c>
+      <c r="N23" s="4">
+        <f t="shared" si="6"/>
+        <v>600.74666666666667</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17">
+      <c r="C24" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24">
+        <v>600</v>
+      </c>
+      <c r="E24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J24">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="3:12">
-      <c r="K21" s="14">
-        <v>0.27</v>
-      </c>
-      <c r="L21">
+      <c r="K24" s="14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L24" s="4">
+        <f t="shared" si="5"/>
+        <v>280.5</v>
+      </c>
+      <c r="M24" s="4">
+        <f t="shared" si="5"/>
+        <v>72089.600000000006</v>
+      </c>
+      <c r="N24" s="4">
+        <f t="shared" si="6"/>
+        <v>1201.4933333333333</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17">
+      <c r="C25" s="37"/>
+      <c r="J25">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:12">
-      <c r="K22" s="14">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="L22">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12">
-      <c r="K23" s="14">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L23">
-        <v>64</v>
+      <c r="K25" s="14">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L25" s="4">
+        <f t="shared" si="5"/>
+        <v>561</v>
+      </c>
+      <c r="M25" s="4">
+        <f t="shared" si="5"/>
+        <v>144179.20000000001</v>
+      </c>
+      <c r="N25" s="4">
+        <f t="shared" si="6"/>
+        <v>2402.9866666666667</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17">
+      <c r="C26" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26">
+        <f>15*60</f>
+        <v>900</v>
+      </c>
+      <c r="E26" t="str">
+        <f>CONCATENATE("сек (",D26/3600, " час)")</f>
+        <v>сек (0,25 час)</v>
+      </c>
+      <c r="K26" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+    </row>
+    <row r="27" spans="3:17">
+      <c r="C27" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>80</v>
+      </c>
+      <c r="K27" s="14">
+        <v>0.125</v>
+      </c>
+      <c r="L27" s="4">
+        <f t="shared" si="5"/>
+        <v>31.875</v>
+      </c>
+      <c r="M27" s="4">
+        <f t="shared" si="5"/>
+        <v>8192</v>
+      </c>
+      <c r="N27" s="4">
+        <f t="shared" si="6"/>
+        <v>136.53333333333333</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17">
+      <c r="C28" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>79</v>
+      </c>
+      <c r="F28" t="s">
+        <v>89</v>
+      </c>
+      <c r="K28" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="L28" s="4">
+        <f t="shared" si="5"/>
+        <v>63.75</v>
+      </c>
+      <c r="M28" s="4">
+        <f t="shared" si="5"/>
+        <v>16384</v>
+      </c>
+      <c r="N28" s="4">
+        <f t="shared" si="6"/>
+        <v>273.06666666666666</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17">
+      <c r="C29" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="40">
+        <f>D27*D28/D26*D20</f>
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" s="23">
+        <f>D29/D30</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="L29" s="4">
+        <f t="shared" si="5"/>
+        <v>127.5</v>
+      </c>
+      <c r="M29" s="4">
+        <f t="shared" si="5"/>
+        <v>32768</v>
+      </c>
+      <c r="N29" s="4">
+        <f t="shared" si="6"/>
+        <v>546.13333333333333</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17">
+      <c r="C30" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="40">
+        <f>D21*D22+(D20-D21)*D23+D27*D28/D26*D20</f>
+        <v>2.2399999999999998E-3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17">
+      <c r="C31" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31">
+        <f>D24*3600/D30</f>
+        <v>964285714.28571439</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17">
+      <c r="C32" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="4">
+        <f>D20*D31/3600</f>
+        <v>33482.142857142862</v>
+      </c>
+      <c r="E32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5">
+      <c r="C33" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="4">
+        <f>D32/24</f>
+        <v>1395.089285714286</v>
+      </c>
+      <c r="E33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5">
+      <c r="C34" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="4">
+        <f>D33/30</f>
+        <v>46.502976190476197</v>
+      </c>
+      <c r="E34" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D6:G6"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -2392,7 +2803,7 @@
   <dimension ref="F4:O44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N43" sqref="N43"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/watermeter_calc.xlsx
+++ b/watermeter_calc.xlsx
@@ -25,7 +25,7 @@
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="B8" authorId="0" shapeId="0">
+    <comment ref="B9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0" shapeId="0">
+    <comment ref="B10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="91">
   <si>
     <t>отключено</t>
   </si>
@@ -281,37 +281,86 @@
     <t>WDT с</t>
   </si>
   <si>
-    <t>Тактовая частота (Гц)</t>
-  </si>
-  <si>
-    <t>Длительность цикла (сек)</t>
-  </si>
-  <si>
-    <t>Потребление (мА)</t>
-  </si>
-  <si>
-    <t>Емкость питания (мА*ч)</t>
-  </si>
-  <si>
-    <t>Энергия (мА*ч)</t>
-  </si>
-  <si>
-    <t>период сек</t>
-  </si>
-  <si>
-    <t>расчет расхода по частоте опроса датчика</t>
-  </si>
-  <si>
-    <t>Q</t>
+    <t>дл тем сект</t>
+  </si>
+  <si>
+    <t>x16 в мин</t>
+  </si>
+  <si>
+    <t>период опроса</t>
+  </si>
+  <si>
+    <t>потребление актив</t>
+  </si>
+  <si>
+    <t>потребление сон</t>
+  </si>
+  <si>
+    <t>потребление цикла</t>
+  </si>
+  <si>
+    <t>емкость батареи</t>
+  </si>
+  <si>
+    <t>время  актив</t>
+  </si>
+  <si>
+    <t>ма/ч</t>
+  </si>
+  <si>
+    <t>всего циклов</t>
+  </si>
+  <si>
+    <t>Время работы</t>
+  </si>
+  <si>
+    <t>час</t>
+  </si>
+  <si>
+    <t>сек</t>
+  </si>
+  <si>
+    <t>ма</t>
+  </si>
+  <si>
+    <t>сут</t>
+  </si>
+  <si>
+    <t>ма/с</t>
+  </si>
+  <si>
+    <t>мес</t>
+  </si>
+  <si>
+    <t>Передача показаний период</t>
+  </si>
+  <si>
+    <t>потребление</t>
+  </si>
+  <si>
+    <t>длительность</t>
+  </si>
+  <si>
+    <t>потр передачи в цикле</t>
+  </si>
+  <si>
+    <t>тиков</t>
+  </si>
+  <si>
+    <t>4800 kb/s 2,08ms/ch * 64char = 130ms</t>
+  </si>
+  <si>
+    <t>Часовой кварц</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -493,7 +542,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -548,10 +597,13 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -903,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:AC31"/>
   <sheetViews>
-    <sheetView topLeftCell="I4" workbookViewId="0">
-      <selection activeCell="X14" sqref="X14"/>
+    <sheetView topLeftCell="I7" workbookViewId="0">
+      <selection activeCell="W26" sqref="W26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1074,12 +1126,12 @@
       <c r="G8" t="s">
         <v>10</v>
       </c>
-      <c r="X8" s="37" t="s">
+      <c r="X8" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="37"/>
+      <c r="Y8" s="41"/>
+      <c r="Z8" s="41"/>
+      <c r="AA8" s="41"/>
     </row>
     <row r="9" spans="3:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
@@ -1482,15 +1534,15 @@
         <f t="shared" ref="L17:L25" si="8">$L$12*K17/($L$13-K17)</f>
         <v>527.82503037667072</v>
       </c>
-      <c r="P17" s="37" t="s">
+      <c r="P17" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="37"/>
-      <c r="T17" s="37"/>
-      <c r="U17" s="37"/>
-      <c r="V17" s="37"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="41"/>
+      <c r="S17" s="41"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="41"/>
       <c r="X17" s="25">
         <v>0.21</v>
       </c>
@@ -2067,364 +2119,681 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:N24"/>
+  <dimension ref="B2:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.5546875" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" customWidth="1"/>
+    <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
     <col min="9" max="9" width="7.6640625" customWidth="1"/>
+    <col min="12" max="13" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="H4" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>62</v>
       </c>
-      <c r="C5">
-        <f>C7/60</f>
+      <c r="C6">
+        <f>C8/60</f>
         <v>80</v>
       </c>
-      <c r="D5">
-        <f>D7/60</f>
+      <c r="D6">
+        <f t="shared" ref="D6:J6" si="0">D8/60</f>
         <v>60</v>
       </c>
-      <c r="E5">
-        <f>E7/60</f>
+      <c r="E6">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="F5">
-        <f t="shared" ref="D5:J5" si="0">F7/60</f>
+      <c r="F6">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I5">
+      <c r="I6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J5">
+      <c r="J6">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C8" s="36">
         <v>4800</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D8" s="36">
         <v>3600</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E8" s="34">
         <v>2400</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F8" s="34">
         <v>1800</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G8" s="34">
         <v>1200</v>
       </c>
-      <c r="H7" s="34">
+      <c r="H8" s="34">
         <v>600</v>
       </c>
-      <c r="I7" s="34">
+      <c r="I8" s="34">
         <v>300</v>
       </c>
-      <c r="J7" s="34">
+      <c r="J8" s="34">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="25">
-        <f t="shared" ref="C8:D8" si="1">3600/C7/3</f>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="25">
+        <f>3600/C8/3</f>
         <v>0.25</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D9" s="25">
+        <f>3600/D8/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E9" s="25">
+        <f t="shared" ref="E9:J9" si="1">3600/E8/3</f>
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="25">
         <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G9" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H9" s="25">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I9" s="25">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J9" s="25">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" s="25">
+        <f t="shared" ref="C10:I10" si="2">C$9/$B10</f>
+        <v>0.125</v>
+      </c>
+      <c r="D10" s="25">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E10" s="25">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="F10" s="25">
+        <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E8" s="25">
-        <f>3600/E7/3</f>
+      <c r="G10" s="25">
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="F8" s="25">
-        <f t="shared" ref="F8:J8" si="2">3600/F7/3</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="G8" s="25">
+      <c r="H10" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H8" s="25">
+      <c r="I10" s="25">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="I8" s="25">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="J8" s="25">
-        <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="25">
-        <f t="shared" ref="C9:I9" si="3">C$8/$B9</f>
-        <v>0.25</v>
-      </c>
-      <c r="D9" s="25">
-        <f t="shared" si="3"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E9" s="25">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="F9" s="25">
-        <f t="shared" si="3"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="G9" s="25">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="H9" s="25">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="I9" s="25">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="J9" s="25">
-        <f t="shared" ref="J9" si="4">J$8/$B9</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" s="25">
-        <f t="shared" ref="C10:J11" si="5">C$8/$B10</f>
-        <v>0.125</v>
-      </c>
-      <c r="D10" s="25">
-        <f t="shared" si="5"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="E10" s="25">
-        <f t="shared" si="5"/>
-        <v>0.25</v>
-      </c>
-      <c r="F10" s="25">
-        <f t="shared" si="5"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G10" s="25">
-        <f t="shared" si="5"/>
-        <v>0.5</v>
-      </c>
-      <c r="H10" s="25">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I10" s="25">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
       <c r="J10" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="J10" si="3">J$9/$B10</f>
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>3</v>
       </c>
       <c r="C11" s="25">
+        <f t="shared" ref="C11:J12" si="4">C$9/$B11</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D11" s="25">
+        <f t="shared" si="4"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E11" s="25">
+        <f t="shared" si="4"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F11" s="25">
+        <f t="shared" si="4"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="G11" s="25">
+        <f t="shared" si="4"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H11" s="25">
+        <f t="shared" si="4"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I11" s="25">
+        <f t="shared" si="4"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="J11" s="25">
+        <f t="shared" si="4"/>
+        <v>26.666666666666668</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" s="25">
+        <f t="shared" si="4"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="D12" s="25">
+        <f t="shared" si="4"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E12" s="25">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="F12" s="25">
+        <f t="shared" si="4"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G12" s="25">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="H12" s="25">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="I12" s="25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J12" s="25">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="K17" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="L17">
+        <v>255</v>
+      </c>
+      <c r="M17">
+        <v>65536</v>
+      </c>
+      <c r="N17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="K18" s="14">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="L18" s="4">
+        <f>L$17*$K18</f>
+        <v>4.335</v>
+      </c>
+      <c r="M18" s="4">
+        <f>M$17*$K18</f>
+        <v>1114.1120000000001</v>
+      </c>
+      <c r="N18" s="4">
+        <f>M18/60</f>
+        <v>18.568533333333335</v>
+      </c>
+      <c r="P18">
+        <v>17</v>
+      </c>
+      <c r="Q18">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C19" s="37"/>
+      <c r="F19" s="22"/>
+      <c r="K19" s="14">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="L19" s="4">
+        <f t="shared" ref="L19:M29" si="5">L$17*$K19</f>
+        <v>8.67</v>
+      </c>
+      <c r="M19" s="4">
         <f t="shared" si="5"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="D11" s="25">
+        <v>2228.2240000000002</v>
+      </c>
+      <c r="N19" s="4">
+        <f t="shared" ref="N19:N29" si="6">M19/60</f>
+        <v>37.137066666666669</v>
+      </c>
+      <c r="P19">
+        <v>22</v>
+      </c>
+      <c r="Q19">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C20" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20">
+        <v>0.25</v>
+      </c>
+      <c r="E20" t="s">
+        <v>79</v>
+      </c>
+      <c r="J20" t="s">
+        <v>88</v>
+      </c>
+      <c r="K20" s="14">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="L20" s="4">
         <f t="shared" si="5"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="E11" s="25">
+        <v>17.34</v>
+      </c>
+      <c r="M20" s="4">
         <f t="shared" si="5"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="F11" s="25">
+        <v>4456.4480000000003</v>
+      </c>
+      <c r="N20" s="4">
+        <f t="shared" si="6"/>
+        <v>74.274133333333339</v>
+      </c>
+      <c r="P20">
+        <v>50</v>
+      </c>
+      <c r="Q20">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C21" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21">
+        <v>1E-3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>79</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21" s="14">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L21" s="4">
         <f t="shared" si="5"/>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="G11" s="25">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="M21" s="4">
         <f t="shared" si="5"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="H11" s="25">
+        <v>9175.0400000000009</v>
+      </c>
+      <c r="N21" s="4">
+        <f t="shared" si="6"/>
+        <v>152.91733333333335</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C22" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="23">
+        <f>D22*D21/D30</f>
+        <v>0.32485110990795885</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+      <c r="K22" s="14">
+        <v>0.27</v>
+      </c>
+      <c r="L22" s="4">
         <f t="shared" si="5"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I11" s="25">
+        <v>68.850000000000009</v>
+      </c>
+      <c r="M22" s="4">
         <f t="shared" si="5"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="J11" s="25">
+        <v>17694.72</v>
+      </c>
+      <c r="N22" s="4">
+        <f t="shared" si="6"/>
+        <v>294.91200000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C23" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="23">
+        <f>D23*(D20-D21)/D30</f>
+        <v>0.40443963183540876</v>
+      </c>
+      <c r="J23">
+        <v>4</v>
+      </c>
+      <c r="K23" s="14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L23" s="4">
         <f t="shared" si="5"/>
-        <v>26.666666666666668</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="K16" s="35" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C17" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17">
-        <v>500</v>
-      </c>
-      <c r="G17">
-        <f>500*3600</f>
-        <v>1800000</v>
-      </c>
-      <c r="K17" s="14">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="N17" t="s">
+        <v>140.25</v>
+      </c>
+      <c r="M23" s="4">
+        <f t="shared" si="5"/>
+        <v>36044.800000000003</v>
+      </c>
+      <c r="N23" s="4">
+        <f t="shared" si="6"/>
+        <v>600.74666666666667</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C24" s="37" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C18" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18">
-        <v>8000000</v>
-      </c>
-      <c r="G18">
-        <v>8000000</v>
-      </c>
-      <c r="K18" s="14">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C19" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G19">
-        <v>1E-3</v>
-      </c>
-      <c r="K19" s="14">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="N19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C20" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20">
-        <v>5</v>
-      </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
-      <c r="K20" s="14">
+      <c r="D24">
+        <v>600</v>
+      </c>
+      <c r="E24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J24">
+        <v>8</v>
+      </c>
+      <c r="K24" s="14">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C21" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21">
-        <f>F20*F19/3600</f>
-        <v>6.9444444444444448E-6</v>
-      </c>
-      <c r="G21">
-        <f>G20*G19</f>
-        <v>2E-3</v>
-      </c>
-      <c r="K21" s="14">
+      <c r="L24" s="4">
+        <f t="shared" si="5"/>
+        <v>280.5</v>
+      </c>
+      <c r="M24" s="4">
+        <f t="shared" si="5"/>
+        <v>72089.600000000006</v>
+      </c>
+      <c r="N24" s="4">
+        <f t="shared" si="6"/>
+        <v>1201.4933333333333</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C25" s="37"/>
+      <c r="J25">
+        <v>16</v>
+      </c>
+      <c r="K25" s="14">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="K22" s="14"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="F23">
-        <f>F17/F21</f>
-        <v>72000000</v>
-      </c>
-      <c r="G23">
-        <f>G17/G21</f>
-        <v>900000000</v>
-      </c>
-      <c r="K23" s="14"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="F24">
-        <f>F23/86400/365</f>
-        <v>2.2831050228310503</v>
+      <c r="L25" s="4">
+        <f t="shared" si="5"/>
+        <v>561</v>
+      </c>
+      <c r="M25" s="4">
+        <f t="shared" si="5"/>
+        <v>144179.20000000001</v>
+      </c>
+      <c r="N25" s="4">
+        <f t="shared" si="6"/>
+        <v>2402.9866666666667</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C26" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26">
+        <f>15*60</f>
+        <v>900</v>
+      </c>
+      <c r="E26" t="str">
+        <f>CONCATENATE("сек (",D26/3600, " час)")</f>
+        <v>сек (0,25 час)</v>
+      </c>
+      <c r="K26" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C27" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27">
+        <v>20</v>
+      </c>
+      <c r="E27" t="s">
+        <v>80</v>
+      </c>
+      <c r="K27" s="14">
+        <v>0.125</v>
+      </c>
+      <c r="L27" s="4">
+        <f t="shared" si="5"/>
+        <v>31.875</v>
+      </c>
+      <c r="M27" s="4">
+        <f t="shared" si="5"/>
+        <v>8192</v>
+      </c>
+      <c r="N27" s="4">
+        <f t="shared" si="6"/>
+        <v>136.53333333333333</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C28" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28">
+        <v>0.15</v>
+      </c>
+      <c r="E28" t="s">
+        <v>79</v>
+      </c>
+      <c r="F28" t="s">
+        <v>89</v>
+      </c>
+      <c r="K28" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="L28" s="4">
+        <f t="shared" si="5"/>
+        <v>63.75</v>
+      </c>
+      <c r="M28" s="4">
+        <f t="shared" si="5"/>
+        <v>16384</v>
+      </c>
+      <c r="N28" s="4">
+        <f t="shared" si="6"/>
+        <v>273.06666666666666</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C29" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="39">
+        <f>D27*D28/D26*D20</f>
+        <v>8.3333333333333339E-4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" s="23">
+        <f>D29/D30</f>
+        <v>0.27070925825663239</v>
+      </c>
+      <c r="K29" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="L29" s="4">
+        <f t="shared" si="5"/>
+        <v>127.5</v>
+      </c>
+      <c r="M29" s="4">
+        <f t="shared" si="5"/>
+        <v>32768</v>
+      </c>
+      <c r="N29" s="4">
+        <f t="shared" si="6"/>
+        <v>546.13333333333333</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C30" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="39">
+        <f>D21*D22+(D20-D21)*D23+D27*D28/D26*D20</f>
+        <v>3.0783333333333335E-3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C31" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31">
+        <f>D24*3600/D30</f>
+        <v>701678397.40119112</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C32" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="4">
+        <f>D20*D31/3600</f>
+        <v>48727.666486193826</v>
+      </c>
+      <c r="E32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C33" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="4">
+        <f>D32/24</f>
+        <v>2030.3194369247428</v>
+      </c>
+      <c r="E33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C34" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="4">
+        <f>D33/30</f>
+        <v>67.677314564158095</v>
+      </c>
+      <c r="E34" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D6:G6"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -2436,7 +2805,7 @@
   <dimension ref="F4:O44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N43" sqref="N43"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/watermeter_calc.xlsx
+++ b/watermeter_calc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -633,8 +633,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>506962</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>234820</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>138430</xdr:rowOff>
     </xdr:to>
@@ -2121,8 +2121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3238,12 +3238,13 @@
   </sheetPr>
   <dimension ref="R1:Z1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z28" sqref="A1:Z28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P45" sqref="P45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="10" max="10" width="21.77734375" customWidth="1"/>
     <col min="17" max="17" width="6.33203125" customWidth="1"/>
     <col min="18" max="25" width="8.88671875" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="5.44140625" hidden="1" customWidth="1"/>

--- a/watermeter_calc.xlsx
+++ b/watermeter_calc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
+    <workbookView minimized="1" xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -955,7 +955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:AC31"/>
   <sheetViews>
-    <sheetView topLeftCell="I7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I7" workbookViewId="0">
       <selection activeCell="W26" sqref="W26"/>
     </sheetView>
   </sheetViews>
@@ -2121,8 +2121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3238,8 +3238,8 @@
   </sheetPr>
   <dimension ref="R1:Z1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P45" sqref="P45"/>
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37:M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
